--- a/biology/Médecine/Pierre_Adolphe_Piorry/Pierre_Adolphe_Piorry.xlsx
+++ b/biology/Médecine/Pierre_Adolphe_Piorry/Pierre_Adolphe_Piorry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Adolphe Piorry est un médecin français né à Poitiers le 31 décembre 1794 et mort le 29 mai 1879 à Paris. Il inventa la plessimétrie, une méthode d'exploration des organes internes utilisant la percussion.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alors qu’il n’était qu’étudiant en médecine, il prit part à la guerre napoléonienne d’Espagne. Parmi ses maîtres on compte Corvisart, Bayle, Broussais et Magendie ; il obtient son diplôme en 1816 avec une thèse intitulée : Du danger de la lecture des livres de médecine par les gens du monde.
 L’invention du stéthoscope par Laennec en 1816 et son ouvrage De l'Auscultation Médiate (1819) lui inspirent l'idée d'une contribution similaire pour la technique de percussion (dont la description originale est faite par Auenbrugger dans son Inventum Novum de 1761, ouvrage traduit du latin au français par Corvisart en 1808). Ses recherches aboutissent à la mise au point en 1826 du plessimètre, un appareil conçu pour aider à délimiter les organes internes (organographisme), qu’il décrit dans son ouvrage De la Percussion Mediate (1828).
@@ -547,7 +561,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sakula, A. Pierre Adolphe Piorry (1794-1879): pioneer of percussion and pleximetry. Thorax, 1979; 34: 575-581</t>
         </is>
